--- a/espn_scrapper/IPL/Royal Challengers Bangalore/Josh Philippe .xlsx
+++ b/espn_scrapper/IPL/Royal Challengers Bangalore/Josh Philippe .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,9 +612,44 @@
         <v>0.00</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve"> Oct 28 2020</v>
+      </c>
+      <c r="B7" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F7" t="str">
+        <v xml:space="preserve">Josh Philippe </v>
+      </c>
+      <c r="G7" t="str">
+        <v>33</v>
+      </c>
+      <c r="H7" t="str">
+        <v>24</v>
+      </c>
+      <c r="I7" t="str">
+        <v>4</v>
+      </c>
+      <c r="J7" t="str">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <v>137.50</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>